--- a/sources/fact_extraction_viewpoint/economy-table08.xlsx
+++ b/sources/fact_extraction_viewpoint/economy-table08.xlsx
@@ -115,8 +115,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="General_)"/>
-    <numFmt numFmtId="169" formatCode="0_)"/>
+    <numFmt numFmtId="164" formatCode="General_)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -245,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -266,7 +266,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -275,19 +275,19 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -300,6 +300,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -804,8 +805,8 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.5"/>
@@ -2197,11 +2198,11 @@
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
+      <c r="F54" s="24"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
+      <c r="H54" s="24"/>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1">
       <c r="A55" s="9" t="s">
